--- a/medicine/Maladies infectieuses/Pénicillose/Pénicillose.xlsx
+++ b/medicine/Maladies infectieuses/Pénicillose/Pénicillose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9nicillose</t>
+          <t>Pénicillose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pénicillose (ou pénicilliose) est une infection mycotique à Penicillium marneffei.
-Il s'agit d'une infection opportuniste dans le cadre d'un SIDA, particulièrement en Asie du Sud-Est[1] (elle est, par ordre de fréquence, la troisième maladie opportuniste dans le Nord de la Thaïlande[2]).
-Elle se manifeste par une fièvre, une anémie et des lésions cutanées caractéristiques (petites papules ombiliquées)[2].
-Le traitement consiste en l'administration d'antimycotiques : amphotéricine B en intraveineuse pendant deux semaines, relayé par de l'itraconazole pendant 10 semaines[3].
+Il s'agit d'une infection opportuniste dans le cadre d'un SIDA, particulièrement en Asie du Sud-Est (elle est, par ordre de fréquence, la troisième maladie opportuniste dans le Nord de la Thaïlande).
+Elle se manifeste par une fièvre, une anémie et des lésions cutanées caractéristiques (petites papules ombiliquées).
+Le traitement consiste en l'administration d'antimycotiques : amphotéricine B en intraveineuse pendant deux semaines, relayé par de l'itraconazole pendant 10 semaines.
 </t>
         </is>
       </c>
